--- a/grupp5_documents/GANT.xlsx
+++ b/grupp5_documents/GANT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="1100" yWindow="420" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -27,21 +27,12 @@
     <t>aktivitetsnamn</t>
   </si>
   <si>
-    <t>planering</t>
-  </si>
-  <si>
     <t>Lektioner</t>
   </si>
   <si>
     <t>Loggbok</t>
   </si>
   <si>
-    <t>Programmering</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
     <t>Testning</t>
   </si>
   <si>
@@ -67,6 +58,36 @@
   </si>
   <si>
     <t>Milstolpar</t>
+  </si>
+  <si>
+    <t>Mainactivity</t>
+  </si>
+  <si>
+    <t>Inläggaktivitet</t>
+  </si>
+  <si>
+    <t>Inläggslista</t>
+  </si>
+  <si>
+    <t>Registreringsaktivitet</t>
+  </si>
+  <si>
+    <t>Nytt inlägg</t>
+  </si>
+  <si>
+    <t>Kameraaktivitet</t>
+  </si>
+  <si>
+    <t>Databashantering</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>planering/projektstyrningsverktyg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möten </t>
   </si>
 </sst>
 </file>
@@ -152,12 +173,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -180,6 +195,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +211,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -326,8 +347,92 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -349,12 +454,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -422,6 +528,48 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -489,6 +637,48 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -818,16 +1008,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG12"/>
+  <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="AI11" sqref="AI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="6" max="14" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="33" width="3.1640625" bestFit="1" customWidth="1"/>
@@ -841,13 +1031,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" s="4">
         <v>1</v>
@@ -938,194 +1128,390 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="B2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="T2" s="15"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="14"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AE3" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AD4" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="13"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AE4" s="11"/>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AD5" s="6"/>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" s="11"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF10" s="12"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
+      <c r="B16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="11"/>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/grupp5_documents/GANT.xlsx
+++ b/grupp5_documents/GANT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="420" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,8 +211,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="219">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -460,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="219">
+  <cellStyles count="221">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -570,6 +572,7 @@
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -679,6 +682,7 @@
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1011,7 +1015,7 @@
   <dimension ref="A1:AG19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="AI11" sqref="AI11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1436,6 +1440,11 @@
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
@@ -1446,9 +1455,6 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="2">
